--- a/DOC/HR2データベース資料.xlsx
+++ b/DOC/HR2データベース資料.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\学習\HR2\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C72085-E5B1-4480-B3A3-627E455D25D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A862414A-B997-43EB-BD4C-671D5F2506EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="10" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="出走馬" sheetId="16" r:id="rId4"/>
     <sheet name="結果" sheetId="17" r:id="rId5"/>
     <sheet name="馬" sheetId="14" r:id="rId6"/>
+    <sheet name="勝ち馬予測用パラメータ" sheetId="25" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="174">
   <si>
     <t>NO.</t>
     <phoneticPr fontId="1"/>
@@ -45,41 +46,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>馬</t>
-    <rPh sb="0" eb="1">
-      <t>ウマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出走レース</t>
-    <rPh sb="0" eb="2">
-      <t>シュッソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レースヘッダー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>結果</t>
-    <rPh sb="0" eb="2">
-      <t>ケッカ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>着順</t>
     <rPh sb="0" eb="2">
       <t>チャクジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>前走</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -244,13 +217,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">【　出走馬　】 </t>
-    <rPh sb="2" eb="5">
-      <t>シュッソウバ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>主キー、出走馬ＩＤ</t>
     <rPh sb="0" eb="1">
       <t>シュ</t>
@@ -283,14 +249,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>odds</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オッズ×10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>w</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -352,10 +310,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PK_SYUSSOBA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>主キー、出走馬前走ＩＤ</t>
     <rPh sb="0" eb="1">
       <t>シュ</t>
@@ -369,29 +323,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>syussoba_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出走馬ＩＤ</t>
-    <rPh sb="0" eb="3">
-      <t>シュッソウバ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>jun</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>tosu</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>頭数</t>
-    <rPh sb="0" eb="2">
-      <t>トウスウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -650,24 +586,6 @@
   </si>
   <si>
     <t>レーティング</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">【　前走　】 </t>
-    <rPh sb="2" eb="4">
-      <t>ゼンソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>back_cnt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>何走前か１～４</t>
-    <rPh sb="0" eb="3">
-      <t>ナンソウマエ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1066,6 +984,303 @@
     <rPh sb="25" eb="26">
       <t>シバ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>waku</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>枠番</t>
+    <rPh sb="0" eb="2">
+      <t>ワクバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>href</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>馬情報リンク</t>
+    <rPh sb="0" eb="1">
+      <t>ウマ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【　entryH　】 出走馬 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>entryH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出走馬</t>
+    <rPh sb="0" eb="3">
+      <t>シュッソウバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１）spanScoreの適合度計算用パラメータ</t>
+    <rPh sb="12" eb="15">
+      <t>テキゴウド</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ケイサンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4着以下の回数の適合得点</t>
+    <rPh sb="1" eb="2">
+      <t>チャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テキゴウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トクテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3着の回数の適合得点</t>
+    <rPh sb="1" eb="2">
+      <t>チャク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テキゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トクテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2着の回数の適合得点</t>
+    <rPh sb="1" eb="2">
+      <t>チャク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テキゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トクテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1着の回数の適合得点</t>
+    <rPh sb="1" eb="2">
+      <t>チャク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テキゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トクテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0回 vs 0回 での係数</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1回 vs 1回 での係数</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;2回 vs &gt;2回 での係数</t>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1回 vs &gt;2回 での係数</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;2回 vs 1回 での係数</t>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２）上り差、着差の適合度計算用パラメータ</t>
+    <rPh sb="2" eb="3">
+      <t>アガ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チャクサ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>テキゴウド</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ケイサンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1走前の重みづけ係数</t>
+    <rPh sb="1" eb="3">
+      <t>ソウマエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２走前の重みづけ係数</t>
+    <rPh sb="1" eb="3">
+      <t>ソウマエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３走前の重みづけ係数</t>
+    <rPh sb="1" eb="3">
+      <t>ソウマエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４走前の重みづけ係数</t>
+    <rPh sb="1" eb="3">
+      <t>ソウマエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>myTimeがcmpTimeより良いとき満点からの減量を決める係数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>myTimeがcmpTimeより悪いとき満点からの減量を決める係数</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1186,7 +1401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1245,6 +1460,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1266,16 +1487,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1209675</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>895345</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>790570</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1290,7 +1511,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2019300" y="3048000"/>
+          <a:off x="381000" y="1657350"/>
           <a:ext cx="1219195" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1327,76 +1548,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1809750</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3028945</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE9A7921-B433-4562-B847-BB1899EA7123}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4152900" y="3419475"/>
-          <a:ext cx="1219195" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-            <a:t>４　結果</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>790570</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1449,23 +1609,129 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180973</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>800095</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:colOff>180973</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82875059-CAC6-4881-BE7A-E9AD8C733E20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="5" idx="0"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="990598" y="2171700"/>
+          <a:ext cx="0" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180973</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219073</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27D70DB0-2AE7-43BA-ACE0-041DE777763A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="11" idx="0"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="990598" y="2171700"/>
+          <a:ext cx="1571625" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>828670</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D76CF47C-0165-4128-A87D-D1F2CB7C5584}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11A67632-324A-4CF9-81B1-AE1775B24C03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1473,7 +1739,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="390525" y="4276725"/>
+          <a:off x="1952625" y="2505075"/>
           <a:ext cx="1219195" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1500,343 +1766,12 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-            <a:t>３　前走</a:t>
+            <a:t>３　出走馬</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1247775</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>933445</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCF72FA9-12B2-49F5-9E52-08E5DA179441}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2057400" y="4619625"/>
-          <a:ext cx="1219195" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-            <a:t>５　馬</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1247775</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>933445</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFF85548-E566-404C-9488-0A00B3B42A66}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2057400" y="5400675"/>
-          <a:ext cx="1219195" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-            <a:t>６　出走レース</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>285748</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1809750</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線コネクタ 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06675124-84E9-4009-810F-A7BEC3FE0A30}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="1"/>
-          <a:endCxn id="3" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2628898" y="3105150"/>
-          <a:ext cx="1524002" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>180973</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>285748</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線コネクタ 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82875059-CAC6-4881-BE7A-E9AD8C733E20}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="5" idx="0"/>
-          <a:endCxn id="3" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="990598" y="3105150"/>
-          <a:ext cx="1638300" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>180973</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190498</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線コネクタ 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B035C563-0141-4356-A1E6-DCDB5204B7F3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="0"/>
-          <a:endCxn id="5" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="990598" y="3943350"/>
-          <a:ext cx="9525" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323848</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323848</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直線コネクタ 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E2DD374-BC3C-4C11-B8C8-46A2473B5245}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="0"/>
-          <a:endCxn id="8" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="2666998" y="5133975"/>
-          <a:ext cx="0" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2190,10 +2125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D9"/>
+  <dimension ref="B1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2207,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="17" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -2228,10 +2163,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2239,10 +2174,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2250,48 +2185,15 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>146</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="4">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="4">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:D9">
-    <sortCondition ref="B4:B9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:D5">
+    <sortCondition ref="B4:B5"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -2310,7 +2212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB982B50-E0CB-4371-BF28-353F58496A2C}">
   <dimension ref="A1:E165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -2326,7 +2228,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2342,16 +2244,16 @@
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>2</v>
@@ -2362,16 +2264,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2379,16 +2281,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2396,16 +2298,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2413,16 +2315,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2430,16 +2332,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2447,16 +2349,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2464,16 +2366,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2481,16 +2383,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2498,16 +2400,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2526,7 +2428,7 @@
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2542,16 +2444,16 @@
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>2</v>
@@ -2562,16 +2464,16 @@
         <v>0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2579,16 +2481,16 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2596,16 +2498,16 @@
         <v>2</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2613,16 +2515,16 @@
         <v>3</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2630,16 +2532,16 @@
         <v>4</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2647,16 +2549,16 @@
         <v>5</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2664,16 +2566,16 @@
         <v>6</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2681,16 +2583,16 @@
         <v>7</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2698,16 +2600,16 @@
         <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2715,16 +2617,16 @@
         <v>9</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2732,16 +2634,16 @@
         <v>10</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2749,16 +2651,16 @@
         <v>11</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2766,16 +2668,16 @@
         <v>12</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2783,16 +2685,16 @@
         <v>13</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2800,16 +2702,16 @@
         <v>14</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2817,16 +2719,16 @@
         <v>15</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.15">
@@ -2834,16 +2736,16 @@
         <v>16</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3677,7 +3579,7 @@
   <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E19"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3692,7 +3594,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3708,16 +3610,16 @@
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>2</v>
@@ -3728,16 +3630,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3745,16 +3647,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3762,16 +3664,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3779,16 +3681,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3796,16 +3698,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3813,16 +3715,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3830,16 +3732,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3847,16 +3749,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3864,16 +3766,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3881,16 +3783,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3898,16 +3800,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3915,16 +3817,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3932,16 +3834,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3949,16 +3851,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3966,16 +3868,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3983,16 +3885,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4872,10 +4774,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2242E46E-857F-4060-A0C9-DCE7217F02DD}">
-  <dimension ref="A1:F178"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4884,14 +4786,14 @@
     <col min="2" max="2" width="15.625" style="5" customWidth="1"/>
     <col min="3" max="3" width="10.625" style="5" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="5" customWidth="1"/>
     <col min="6" max="6" width="38.625" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4909,21 +4811,18 @@
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4932,19 +4831,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>41</v>
+        <v>98</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4952,39 +4848,33 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="8">
-        <v>4</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>24</v>
+        <v>98</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
+      <c r="B6" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="8">
-        <v>2</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>43</v>
+        <v>98</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4992,19 +4882,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="4">
-        <v>20</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -5012,19 +4899,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="8">
-        <v>2</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -5032,19 +4916,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4">
-        <v>2</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -5052,605 +4933,65 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="4">
-        <v>20</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>51</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="4">
-        <v>2</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="4">
-        <v>2</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="8">
-        <v>2</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
-        <v>0</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="4">
-        <v>1</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4">
-        <v>0</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="4">
+        <v>113</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4">
-        <v>1</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="8">
-        <v>4</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4">
-        <v>2</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="8">
-        <v>4</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4">
-        <v>3</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="8">
-        <v>2</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4">
-        <v>4</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="8">
-        <v>2</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4">
-        <v>5</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="8">
-        <v>2</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4">
-        <v>6</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="8">
-        <v>2</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4">
-        <v>7</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="8">
-        <v>2</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4">
-        <v>8</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="4">
-        <v>20</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4">
-        <v>9</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="8">
-        <v>2</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4">
-        <v>10</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="8">
-        <v>2</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4">
-        <v>11</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="8">
-        <v>2</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4">
-        <v>12</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="4">
-        <v>10</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4">
-        <v>13</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="4">
-        <v>2</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="4">
-        <v>14</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="4">
-        <v>2</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4">
-        <v>15</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="4">
-        <v>2</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4">
-        <v>16</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="4">
-        <v>8</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4">
-        <v>17</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="4">
-        <v>20</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="33.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4">
-        <v>18</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="4">
-        <v>20</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>74</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="10"/>
+      <c r="A42" s="2"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="19"/>
-      <c r="F43" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4">
-        <v>0</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="4">
-        <v>1</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="19"/>
-      <c r="F44" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
     <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="2"/>
+      <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -5658,20 +4999,20 @@
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
@@ -5681,6 +5022,22 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
+    <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="2"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
     <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
@@ -5690,39 +5047,23 @@
       <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="2"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="2"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
     </row>
     <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="2"/>
+      <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -5753,8 +5094,24 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
+    <row r="60" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="2"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="2"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
     <row r="62" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="1"/>
+      <c r="A62" s="2"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -5762,7 +5119,7 @@
       <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="1"/>
+      <c r="A63" s="2"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -5771,11 +5128,11 @@
     </row>
     <row r="64" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="11"/>
     </row>
     <row r="65" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2"/>
@@ -5807,7 +5164,7 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
+      <c r="F68" s="11"/>
     </row>
     <row r="69" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
@@ -5815,7 +5172,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
+      <c r="F69" s="11"/>
     </row>
     <row r="70" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2"/>
@@ -5823,23 +5180,15 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="11"/>
-    </row>
-    <row r="71" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="2"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
+      <c r="F70" s="1"/>
     </row>
     <row r="72" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2"/>
@@ -5855,7 +5204,7 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="11"/>
+      <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2"/>
@@ -5863,7 +5212,7 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="11"/>
+      <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2"/>
@@ -5874,23 +5223,14 @@
       <c r="F76" s="1"/>
     </row>
     <row r="78" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-    </row>
-    <row r="79" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="2"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
     </row>
     <row r="80" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="2"/>
+      <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -5898,7 +5238,7 @@
       <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="2"/>
+      <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -5907,50 +5247,67 @@
     </row>
     <row r="82" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="2"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="2"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
     </row>
     <row r="84" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="11"/>
+      <c r="A84" s="2"/>
+      <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
+    <row r="85" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="2"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+    </row>
     <row r="86" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="1"/>
+      <c r="A86" s="2"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
+      <c r="F86" s="11"/>
     </row>
     <row r="87" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="1"/>
+      <c r="A87" s="2"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
+      <c r="F87" s="11"/>
     </row>
     <row r="88" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
     </row>
     <row r="89" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="2"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="2"/>
@@ -5968,22 +5325,6 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="2"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="11"/>
-    </row>
-    <row r="93" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="2"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="11"/>
-    </row>
     <row r="94" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
@@ -5993,20 +5334,20 @@
       <c r="F94" s="1"/>
     </row>
     <row r="95" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
     </row>
     <row r="96" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="2"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="2"/>
@@ -6016,8 +5357,24 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
+    <row r="98" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="2"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="2"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+    </row>
     <row r="100" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="1"/>
+      <c r="A100" s="2"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -6025,7 +5382,7 @@
       <c r="F100" s="1"/>
     </row>
     <row r="101" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="1"/>
+      <c r="A101" s="2"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -6034,11 +5391,11 @@
     </row>
     <row r="102" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
     </row>
     <row r="103" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="2"/>
@@ -6057,7 +5414,7 @@
       <c r="F104" s="1"/>
     </row>
     <row r="105" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="2"/>
+      <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -6066,11 +5423,11 @@
     </row>
     <row r="106" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="2"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="2"/>
@@ -6104,32 +5461,8 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-    </row>
-    <row r="112" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-    </row>
-    <row r="113" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="2"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-    </row>
     <row r="114" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="2"/>
+      <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -6137,7 +5470,7 @@
       <c r="F114" s="1"/>
     </row>
     <row r="115" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="2"/>
+      <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -6146,14 +5479,38 @@
     </row>
     <row r="116" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="2"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+    </row>
+    <row r="117" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="2"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="2"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="11"/>
+    </row>
+    <row r="119" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="2"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="11"/>
     </row>
     <row r="120" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="1"/>
+      <c r="A120" s="2"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -6161,7 +5518,7 @@
       <c r="F120" s="1"/>
     </row>
     <row r="121" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="1"/>
+      <c r="A121" s="2"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -6170,11 +5527,11 @@
     </row>
     <row r="122" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="11"/>
     </row>
     <row r="123" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="2"/>
@@ -6182,26 +5539,26 @@
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
+      <c r="F123" s="11"/>
     </row>
     <row r="124" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="2"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
       <c r="F124" s="11"/>
     </row>
     <row r="125" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="2"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="11"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="1"/>
     </row>
     <row r="126" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="2"/>
+      <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -6210,11 +5567,11 @@
     </row>
     <row r="127" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="2"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
     </row>
     <row r="128" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="2"/>
@@ -6222,7 +5579,7 @@
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="11"/>
+      <c r="F128" s="1"/>
     </row>
     <row r="129" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="2"/>
@@ -6230,50 +5587,34 @@
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="11"/>
+      <c r="F129" s="1"/>
     </row>
     <row r="130" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="2"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="12"/>
-      <c r="F130" s="11"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
     </row>
     <row r="131" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="2"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
-      <c r="D131" s="12"/>
-      <c r="E131" s="12"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
       <c r="F131" s="1"/>
     </row>
     <row r="132" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="1"/>
+      <c r="A132" s="2"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-    </row>
-    <row r="134" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="2"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-    </row>
     <row r="135" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="2"/>
+      <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -6281,7 +5622,7 @@
       <c r="F135" s="1"/>
     </row>
     <row r="136" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="2"/>
+      <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -6290,11 +5631,11 @@
     </row>
     <row r="137" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="2"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
     </row>
     <row r="138" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="2"/>
@@ -6304,8 +5645,24 @@
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
     </row>
+    <row r="139" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="2"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+    </row>
+    <row r="140" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="2"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+    </row>
     <row r="141" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="1"/>
+      <c r="A141" s="2"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -6313,7 +5670,7 @@
       <c r="F141" s="1"/>
     </row>
     <row r="142" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="1"/>
+      <c r="A142" s="2"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -6322,11 +5679,11 @@
     </row>
     <row r="143" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
     </row>
     <row r="144" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="2"/>
@@ -6372,12 +5729,12 @@
       <c r="A149" s="2"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
       <c r="F149" s="1"/>
     </row>
     <row r="150" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="2"/>
+      <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -6386,11 +5743,11 @@
     </row>
     <row r="151" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="2"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
     </row>
     <row r="152" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="2"/>
@@ -6420,28 +5777,20 @@
       <c r="A155" s="2"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
-      <c r="D155" s="12"/>
-      <c r="E155" s="12"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
       <c r="F155" s="1"/>
     </row>
-    <row r="156" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-    </row>
     <row r="157" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
     </row>
     <row r="158" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="2"/>
+      <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -6450,11 +5799,11 @@
     </row>
     <row r="159" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="2"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="2"/>
@@ -6472,8 +5821,16 @@
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
     </row>
+    <row r="162" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="2"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+    </row>
     <row r="163" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="1"/>
+      <c r="A163" s="2"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -6481,7 +5838,7 @@
       <c r="F163" s="1"/>
     </row>
     <row r="164" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="1"/>
+      <c r="A164" s="2"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -6489,31 +5846,31 @@
       <c r="F164" s="1"/>
     </row>
     <row r="165" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-      <c r="F165" s="2"/>
+      <c r="A165" s="13"/>
+      <c r="B165" s="14"/>
+      <c r="C165" s="14"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="14"/>
     </row>
     <row r="166" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="2"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
+      <c r="A166" s="13"/>
+      <c r="B166" s="14"/>
+      <c r="C166" s="14"/>
+      <c r="D166" s="15"/>
+      <c r="E166" s="15"/>
+      <c r="F166" s="14"/>
     </row>
     <row r="167" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="2"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
+      <c r="A167" s="13"/>
+      <c r="B167" s="14"/>
+      <c r="C167" s="14"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="14"/>
     </row>
     <row r="168" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="2"/>
+      <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -6522,11 +5879,11 @@
     </row>
     <row r="169" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="2"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="2"/>
@@ -6537,76 +5894,22 @@
       <c r="F170" s="1"/>
     </row>
     <row r="171" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="13"/>
-      <c r="B171" s="14"/>
-      <c r="C171" s="14"/>
-      <c r="D171" s="15"/>
-      <c r="E171" s="15"/>
-      <c r="F171" s="14"/>
+      <c r="A171" s="2"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
     </row>
     <row r="172" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="13"/>
-      <c r="B172" s="14"/>
-      <c r="C172" s="14"/>
-      <c r="D172" s="15"/>
-      <c r="E172" s="15"/>
-      <c r="F172" s="14"/>
-    </row>
-    <row r="173" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="13"/>
-      <c r="B173" s="14"/>
-      <c r="C173" s="14"/>
-      <c r="D173" s="15"/>
-      <c r="E173" s="15"/>
-      <c r="F173" s="14"/>
-    </row>
-    <row r="174" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-    </row>
-    <row r="175" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
-    </row>
-    <row r="176" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="2"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
-    </row>
-    <row r="177" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="2"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
-    </row>
-    <row r="178" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="2"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
+      <c r="A172" s="2"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.82677165354330717" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -6614,9 +5917,9 @@
     <oddHeader>&amp;C&amp;F</oddHeader>
   </headerFooter>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="60" max="16383" man="1"/>
-    <brk id="98" max="16383" man="1"/>
-    <brk id="140" max="16383" man="1"/>
+    <brk id="54" max="16383" man="1"/>
+    <brk id="92" max="16383" man="1"/>
+    <brk id="134" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -6642,7 +5945,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6660,19 +5963,19 @@
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>2</v>
@@ -6683,19 +5986,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4">
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -6703,19 +6006,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="8">
         <v>4</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -6723,19 +6026,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -6743,19 +6046,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -6763,19 +6066,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D8" s="8">
         <v>2</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -6783,19 +6086,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4">
         <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -6803,19 +6106,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D10" s="8">
         <v>2</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -6823,19 +6126,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D11" s="4">
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -6843,19 +6146,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D12" s="4">
         <v>2</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -6863,19 +6166,19 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D13" s="4">
         <v>2</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -6883,19 +6186,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D14" s="4">
         <v>20</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -6903,19 +6206,19 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -6923,19 +6226,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -6948,16 +6251,16 @@
     </row>
     <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="4" t="s">
@@ -6969,17 +6272,17 @@
         <v>0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -7973,7 +7276,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7991,19 +7294,19 @@
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>2</v>
@@ -8014,19 +7317,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4">
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -8034,19 +7337,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D5" s="4">
         <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -8054,19 +7357,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D6" s="4">
         <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -8074,19 +7377,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4">
         <v>20</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -8094,19 +7397,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4">
         <v>20</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -8114,19 +7417,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4">
         <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -8134,19 +7437,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -8154,19 +7457,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4">
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -8179,16 +7482,16 @@
     </row>
     <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="4" t="s">
@@ -8200,17 +7503,17 @@
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -8231,7 +7534,7 @@
     </row>
     <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -8249,19 +7552,19 @@
     </row>
     <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>2</v>
@@ -8272,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D20" s="4">
         <v>4</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -8292,19 +7595,19 @@
         <v>1</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D21" s="8">
         <v>4</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -8312,19 +7615,19 @@
         <v>2</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D22" s="8">
         <v>2</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -8332,19 +7635,19 @@
         <v>3</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D23" s="8">
         <v>2</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -8352,19 +7655,19 @@
         <v>4</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D24" s="8">
         <v>2</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -8372,19 +7675,19 @@
         <v>5</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D25" s="4">
         <v>20</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -8392,19 +7695,19 @@
         <v>6</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D26" s="8">
         <v>2</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -8412,19 +7715,19 @@
         <v>7</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D27" s="4">
         <v>2</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -8432,19 +7735,19 @@
         <v>8</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D28" s="8">
         <v>2</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -8452,19 +7755,19 @@
         <v>9</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D29" s="8">
         <v>2</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -8472,19 +7775,19 @@
         <v>10</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D30" s="4">
         <v>10</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -8492,19 +7795,19 @@
         <v>11</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D31" s="4">
         <v>50</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -8512,19 +7815,19 @@
         <v>12</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D32" s="4">
         <v>2</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -8532,19 +7835,19 @@
         <v>13</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D33" s="4">
         <v>20</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -8552,19 +7855,19 @@
         <v>14</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D34" s="4">
         <v>2</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -8572,19 +7875,19 @@
         <v>15</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D35" s="4">
         <v>8</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -8592,19 +7895,19 @@
         <v>16</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D36" s="4">
         <v>20</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -8612,19 +7915,19 @@
         <v>17</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D37" s="4">
         <v>2</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -8632,19 +7935,19 @@
         <v>18</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D38" s="4">
         <v>2</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -8652,19 +7955,19 @@
         <v>19</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D39" s="4">
         <v>2</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -8672,19 +7975,19 @@
         <v>20</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D40" s="4">
         <v>2</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -8697,16 +8000,16 @@
     </row>
     <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E42" s="19"/>
       <c r="F42" s="4" t="s">
@@ -8718,17 +8021,17 @@
         <v>0</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C43" s="4">
         <v>1</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E43" s="19"/>
       <c r="F43" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -9693,4 +8996,347 @@
     <brk id="138" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E6A1C0-1803-4351-9BC1-DB91C3972424}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7" style="20" customWidth="1"/>
+    <col min="2" max="2" width="44.375" style="20" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="21">
+        <v>100</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="21">
+        <v>100</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="21">
+        <v>100</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="21">
+        <v>100</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="21">
+        <v>1</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="21">
+        <v>1</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="21">
+        <v>-0.1</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/DOC/HR2データベース資料.xlsx
+++ b/DOC/HR2データベース資料.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\学習\HR2\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E328C6-7DB7-456F-B991-DC1D838899DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884C477E-C978-42E0-93C6-C76A0BAFC0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="10" r:id="rId1"/>
@@ -20,25 +20,12 @@
     <sheet name="結果" sheetId="17" r:id="rId5"/>
     <sheet name="勝ち馬予測用パラメータ" sheetId="25" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="157">
   <si>
     <t>NO.</t>
     <phoneticPr fontId="1"/>
@@ -268,16 +255,6 @@
   </si>
   <si>
     <t>tocyu</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>途中順位</t>
-    <rPh sb="0" eb="2">
-      <t>トチュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジュンイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1079,16 +1056,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>性齢</t>
-    <rPh sb="0" eb="1">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ヨワイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>seirei</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1153,6 +1120,31 @@
   </si>
   <si>
     <t xml:space="preserve">【　Kekka　】　結果 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-4角通過順  ex.10-9-8-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性齢 ex.せん-8</t>
+    <rPh sb="0" eb="1">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヨワイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kekka</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レース結果</t>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1247,7 +1239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1306,6 +1298,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1327,16 +1325,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>790570</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>1257295</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1351,7 +1349,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="381000" y="1657350"/>
+          <a:off x="847725" y="2057400"/>
           <a:ext cx="1219195" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1390,13 +1388,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>790570</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1451,13 +1449,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>180973</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>180973</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>647698</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1477,8 +1475,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="990598" y="2171700"/>
-          <a:ext cx="0" cy="342900"/>
+          <a:off x="990598" y="2571750"/>
+          <a:ext cx="466725" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1502,16 +1500,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1209670</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>2657470</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1526,7 +1524,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2333625" y="1895475"/>
+          <a:off x="3781425" y="2105025"/>
           <a:ext cx="1219195" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1564,15 +1562,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>2047875</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>2047875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1589,7 +1587,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="2943225" y="2409825"/>
+          <a:off x="4391025" y="2619375"/>
           <a:ext cx="0" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1615,15 +1613,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1219195</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>2666995</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1638,7 +1636,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2343150" y="2743200"/>
+          <a:off x="3790950" y="2952750"/>
           <a:ext cx="1219195" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1671,6 +1669,120 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600070</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2633DD3E-4720-4271-B533-D657E85CDB47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1724025" y="2981325"/>
+          <a:ext cx="1219195" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>レース結果</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647698</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1523998</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4FA0C3D-9C30-4ED7-8415-D38F5353C088}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="7" idx="0"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1457323" y="2571750"/>
+          <a:ext cx="876300" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2024,10 +2136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D8"/>
+  <dimension ref="B1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2041,7 +2153,7 @@
   <sheetData>
     <row r="1" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2062,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>3</v>
@@ -2073,10 +2185,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2084,10 +2196,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2095,10 +2207,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2106,11 +2218,21 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>136</v>
-      </c>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:D5">
@@ -2134,7 +2256,7 @@
   <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2149,7 +2271,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2188,7 +2310,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
@@ -2205,7 +2327,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>10</v>
@@ -2222,7 +2344,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>10</v>
@@ -2239,7 +2361,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>10</v>
@@ -2256,7 +2378,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>10</v>
@@ -2270,16 +2392,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2290,7 +2412,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>10</v>
@@ -2304,16 +2426,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2324,13 +2446,13 @@
         <v>34</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3179,7 +3301,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3218,13 +3340,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3232,10 +3354,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
@@ -3249,10 +3371,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>10</v>
@@ -3266,16 +3388,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3283,16 +3405,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3300,16 +3422,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3317,16 +3439,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3334,16 +3456,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3351,16 +3473,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3368,16 +3490,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3385,16 +3507,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3402,16 +3524,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3419,16 +3541,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3436,16 +3558,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3453,16 +3575,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3473,7 +3595,7 @@
         <v>35</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>10</v>
@@ -3487,16 +3609,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4329,7 +4451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716A6DE8-781E-4835-8DE5-ED647A4D8B02}">
   <dimension ref="A1:E163"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -4345,7 +4467,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4384,13 +4506,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4401,7 +4523,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
@@ -4415,16 +4537,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4432,16 +4554,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4452,13 +4574,13 @@
         <v>31</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4466,16 +4588,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4483,16 +4605,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4504,7 +4626,7 @@
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -4543,13 +4665,13 @@
         <v>9</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4557,16 +4679,16 @@
         <v>1</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4577,13 +4699,13 @@
         <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4591,16 +4713,16 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4611,7 +4733,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>10</v>
@@ -4628,7 +4750,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>10</v>
@@ -4645,7 +4767,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>10</v>
@@ -4659,16 +4781,16 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4679,13 +4801,13 @@
         <v>34</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4696,7 +4818,7 @@
         <v>35</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>10</v>
@@ -4710,10 +4832,10 @@
         <v>10</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>10</v>
@@ -4730,7 +4852,7 @@
         <v>29</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>10</v>
@@ -4747,13 +4869,13 @@
         <v>32</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4764,7 +4886,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>10</v>
@@ -4781,7 +4903,7 @@
         <v>37</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>10</v>
@@ -4795,16 +4917,16 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -5638,7 +5760,7 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.82677165354330717" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;F</oddHeader>
   </headerFooter>
@@ -5654,8 +5776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEC15CE-3C4D-4E9D-B208-888879EAE741}">
   <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5670,7 +5792,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5709,7 +5831,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
@@ -5726,7 +5848,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>10</v>
@@ -5740,16 +5862,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -5757,10 +5879,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>10</v>
@@ -5774,16 +5896,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -5791,16 +5913,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -5811,13 +5933,13 @@
         <v>32</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -5828,7 +5950,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>10</v>
@@ -5845,7 +5967,7 @@
         <v>37</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>10</v>
@@ -5862,13 +5984,13 @@
         <v>39</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -5876,16 +5998,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -5893,16 +6015,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -5910,16 +6032,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -5930,7 +6052,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>10</v>
@@ -5944,16 +6066,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -5961,16 +6083,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -5981,7 +6103,7 @@
         <v>35</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>10</v>
@@ -5995,16 +6117,16 @@
         <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -6846,15 +6968,15 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>101</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>102</v>
       </c>
       <c r="C3" s="18">
         <v>100</v>
@@ -6870,10 +6992,10 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="18">
         <v>100</v>
@@ -6889,10 +7011,10 @@
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="18">
         <v>100</v>
@@ -6908,10 +7030,10 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="18">
         <v>100</v>
@@ -6927,10 +7049,10 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" s="18">
         <v>0.6</v>
@@ -6946,10 +7068,10 @@
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" s="18">
         <v>1</v>
@@ -6965,10 +7087,10 @@
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="18">
         <v>0.9</v>
@@ -6984,10 +7106,10 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="18">
         <v>0.8</v>
@@ -7003,10 +7125,10 @@
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="18">
         <v>0.8</v>
@@ -7035,15 +7157,15 @@
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C17" s="18">
         <v>1</v>
@@ -7059,10 +7181,10 @@
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C18" s="18">
         <v>0.9</v>
@@ -7078,10 +7200,10 @@
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="18">
         <v>0.8</v>
@@ -7097,10 +7219,10 @@
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C20" s="18">
         <v>0.7</v>
@@ -7116,10 +7238,10 @@
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21" s="18">
         <v>-0.1</v>
@@ -7135,10 +7257,10 @@
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" s="18">
         <v>0.3</v>

--- a/DOC/HR2データベース資料.xlsx
+++ b/DOC/HR2データベース資料.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\学習\HR2\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884C477E-C978-42E0-93C6-C76A0BAFC0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766504B5-0CA6-4AAC-8E37-D796947735B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="10" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="165">
   <si>
     <t>NO.</t>
     <phoneticPr fontId="1"/>
@@ -1144,6 +1144,65 @@
     <t>レース結果</t>
     <rPh sb="3" eb="5">
       <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShortRaceNameTable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>短縮レース名対照表</t>
+    <rPh sb="0" eb="2">
+      <t>タンシュク</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>メイタイショウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【　ShortRaceNameTable　】　短縮レース名対照表 </t>
+    <rPh sb="23" eb="25">
+      <t>タンシュク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>タイショウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主キー、レコードＩＤ</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shortname</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>短縮レース名</t>
+    <rPh sb="0" eb="2">
+      <t>タンシュク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>longname</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正式名</t>
+    <rPh sb="0" eb="3">
+      <t>セイシキメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1239,7 +1298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1298,12 +1357,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1331,8 +1384,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1257295</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1349,8 +1402,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="847725" y="2057400"/>
-          <a:ext cx="1219195" cy="514350"/>
+          <a:off x="847725" y="2514600"/>
+          <a:ext cx="1495425" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1387,13 +1440,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>790570</xdr:colOff>
+      <xdr:colOff>600070</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1410,7 +1463,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="381000" y="3429000"/>
+          <a:off x="190500" y="3429000"/>
           <a:ext cx="1219195" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1447,14 +1500,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>180973</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676273</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>647698</xdr:colOff>
+      <xdr:colOff>785813</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1475,8 +1528,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="990598" y="2571750"/>
-          <a:ext cx="466725" cy="400050"/>
+          <a:off x="800098" y="3028950"/>
+          <a:ext cx="795340" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1735,7 +1788,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>647698</xdr:colOff>
+      <xdr:colOff>785813</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
@@ -1762,8 +1815,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="1457323" y="2571750"/>
-          <a:ext cx="876300" cy="409575"/>
+          <a:off x="1595438" y="3028950"/>
+          <a:ext cx="738185" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1783,6 +1836,67 @@
         <a:effectLst/>
       </xdr:spPr>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33A75D39-2F85-418E-9667-C87B9FC126C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="800100" y="4257675"/>
+          <a:ext cx="1543050" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>短縮レース名対照表</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2136,10 +2250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D10"/>
+  <dimension ref="B1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2225,14 +2339,15 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-    </row>
-    <row r="10" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="B9" s="4">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>158</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:D5">
@@ -5774,10 +5889,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEC15CE-3C4D-4E9D-B208-888879EAE741}">
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6130,13 +6245,15 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -6144,35 +6261,75 @@
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="A26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="A27" s="4">
+        <v>0</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="A28" s="4">
+        <v>1</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="2"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="A29" s="4">
+        <v>2</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1"/>
+      <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -6180,38 +6337,45 @@
     </row>
     <row r="31" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="35" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
@@ -6234,36 +6398,21 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="2"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
     <row r="42" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="2"/>
-      <c r="B42" s="1"/>
+      <c r="B42" s="11"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="2"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="11"/>
-    </row>
     <row r="44" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="2"/>
+      <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="2"/>
+      <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -6271,24 +6420,24 @@
     </row>
     <row r="46" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="11"/>
+      <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="11"/>
+      <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
@@ -6297,15 +6446,22 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
+    <row r="50" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="11"/>
+    </row>
     <row r="51" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="11"/>
     </row>
     <row r="52" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="2"/>
+      <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -6313,10 +6469,10 @@
     </row>
     <row r="53" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
@@ -6332,11 +6488,12 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="57" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="11"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
+    <row r="58" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
@@ -6346,18 +6503,18 @@
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2"/>
@@ -6385,17 +6542,17 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="11"/>
+      <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="11"/>
+      <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="1"/>
+      <c r="A67" s="2"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -6403,13 +6560,13 @@
     </row>
     <row r="68" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="2"/>
+      <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -6417,55 +6574,48 @@
     </row>
     <row r="70" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="2"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="2"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="1"/>
+      <c r="A73" s="2"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="1"/>
+      <c r="A74" s="2"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="2"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="2"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-    </row>
     <row r="78" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="2"/>
+      <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="2"/>
+      <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -6473,10 +6623,10 @@
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="2"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
     </row>
     <row r="81" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="2"/>
@@ -6490,17 +6640,17 @@
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
+      <c r="E82" s="11"/>
     </row>
     <row r="83" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="2"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
+      <c r="E83" s="11"/>
     </row>
     <row r="84" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="1"/>
+      <c r="A84" s="2"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -6508,48 +6658,69 @@
     </row>
     <row r="85" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="2"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
+      <c r="E86" s="11"/>
     </row>
     <row r="87" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="2"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
+      <c r="E87" s="11"/>
     </row>
     <row r="88" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="2"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="11"/>
     </row>
     <row r="89" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="2"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
+      <c r="D89" s="12"/>
       <c r="E89" s="1"/>
     </row>
+    <row r="90" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="2"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+    </row>
     <row r="93" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="1"/>
+      <c r="A93" s="2"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="1"/>
+      <c r="A94" s="2"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -6557,10 +6728,10 @@
     </row>
     <row r="95" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="2"/>
@@ -6569,29 +6740,15 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="2"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="11"/>
-    </row>
-    <row r="98" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="2"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="11"/>
-    </row>
     <row r="99" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="2"/>
+      <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
     <row r="100" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="2"/>
+      <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -6599,34 +6756,34 @@
     </row>
     <row r="101" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="2"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="11"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="2"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="11"/>
+      <c r="E102" s="1"/>
     </row>
     <row r="103" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="2"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="11"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
     </row>
     <row r="104" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="2"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="12"/>
+      <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
     <row r="105" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="1"/>
+      <c r="A105" s="2"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -6634,10 +6791,10 @@
     </row>
     <row r="106" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="2"/>
@@ -6674,6 +6831,20 @@
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
     </row>
+    <row r="112" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="2"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="2"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="1"/>
+    </row>
     <row r="114" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
@@ -6682,18 +6853,18 @@
       <c r="E114" s="1"/>
     </row>
     <row r="115" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
     </row>
     <row r="116" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
     </row>
     <row r="117" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="2"/>
@@ -6716,22 +6887,15 @@
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="2"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-    </row>
     <row r="121" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="2"/>
+      <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
     </row>
     <row r="122" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="2"/>
+      <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -6739,10 +6903,10 @@
     </row>
     <row r="123" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="2"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="2"/>
@@ -6776,32 +6940,32 @@
       <c r="A128" s="2"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
-      <c r="D128" s="12"/>
+      <c r="D128" s="1"/>
       <c r="E128" s="1"/>
     </row>
     <row r="129" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
+      <c r="A129" s="13"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="14"/>
     </row>
     <row r="130" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
+      <c r="A130" s="13"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="14"/>
     </row>
     <row r="131" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="2"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
+      <c r="A131" s="13"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="14"/>
     </row>
     <row r="132" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="2"/>
+      <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -6809,10 +6973,10 @@
     </row>
     <row r="133" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="2"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
     </row>
     <row r="134" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="2"/>
@@ -6821,117 +6985,19 @@
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
     </row>
+    <row r="135" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="2"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+    </row>
     <row r="136" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="1"/>
+      <c r="A136" s="2"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
-    </row>
-    <row r="137" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-    </row>
-    <row r="138" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-    </row>
-    <row r="139" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="2"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-    </row>
-    <row r="140" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="2"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-    </row>
-    <row r="141" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="2"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-    </row>
-    <row r="142" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="2"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-    </row>
-    <row r="143" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="2"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-    </row>
-    <row r="144" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="13"/>
-      <c r="B144" s="14"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="14"/>
-    </row>
-    <row r="145" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="13"/>
-      <c r="B145" s="14"/>
-      <c r="C145" s="14"/>
-      <c r="D145" s="15"/>
-      <c r="E145" s="14"/>
-    </row>
-    <row r="146" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="13"/>
-      <c r="B146" s="14"/>
-      <c r="C146" s="14"/>
-      <c r="D146" s="15"/>
-      <c r="E146" s="14"/>
-    </row>
-    <row r="147" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-    </row>
-    <row r="148" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-    </row>
-    <row r="149" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="2"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-    </row>
-    <row r="150" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="2"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-    </row>
-    <row r="151" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="2"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E20">
@@ -6943,10 +7009,9 @@
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;F</oddHeader>
   </headerFooter>
-  <rowBreaks count="3" manualBreakCount="3">
-    <brk id="33" max="16383" man="1"/>
-    <brk id="71" max="16383" man="1"/>
-    <brk id="113" max="16383" man="1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="56" max="16383" man="1"/>
+    <brk id="98" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>

--- a/DOC/HR2データベース資料.xlsx
+++ b/DOC/HR2データベース資料.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\学習\HR2\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766504B5-0CA6-4AAC-8E37-D796947735B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA6414A-04A9-49FD-A865-4E0F93683546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="10" r:id="rId1"/>
     <sheet name="レースヘッダー" sheetId="15" r:id="rId2"/>
-    <sheet name="解析値" sheetId="26" r:id="rId3"/>
+    <sheet name="パラメータ" sheetId="26" r:id="rId3"/>
     <sheet name="馬" sheetId="14" r:id="rId4"/>
     <sheet name="結果" sheetId="17" r:id="rId5"/>
     <sheet name="勝ち馬予測用パラメータ" sheetId="25" r:id="rId6"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="145">
   <si>
     <t>NO.</t>
     <phoneticPr fontId="1"/>
@@ -377,174 +377,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【　AnaVal　】 解析値</t>
-    <rPh sb="11" eb="13">
-      <t>カイセキ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>rhead_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>主キー、解析値ＩＤ</t>
-    <rPh sb="0" eb="1">
-      <t>シュ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カイセキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>１走前の上り差補正値</t>
-    <rPh sb="1" eb="3">
-      <t>ソウマエ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>アガ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ホセイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>１走前の着差</t>
-    <rPh sb="1" eb="3">
-      <t>ソウマエ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>チャクサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>２走前の上り差補正値</t>
-    <rPh sb="1" eb="3">
-      <t>ソウマエ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>アガ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ホセイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>２走前の着差</t>
-    <rPh sb="1" eb="3">
-      <t>ソウマエ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>チャクサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>３走前の上り差補正値</t>
-    <rPh sb="1" eb="3">
-      <t>ソウマエ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>アガ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ホセイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>３走前の着差</t>
-    <rPh sb="1" eb="3">
-      <t>ソウマエ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>チャクサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>４走前の上り差補正値</t>
-    <rPh sb="1" eb="3">
-      <t>ソウマエ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>アガ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ホセイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>４走前の着差</t>
-    <rPh sb="1" eb="3">
-      <t>ソウマエ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>チャクサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>REAL</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>cyakujun</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>agarisa1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cyakusa1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>agarisa2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cyakusa2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>agarisa3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cyakusa3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>agarisa4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cyakusa4</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -569,38 +406,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AnaVal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>解析値</t>
-    <rPh sb="0" eb="3">
-      <t>カイセキチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>同一月日の成績</t>
-    <rPh sb="0" eb="2">
-      <t>ドウイツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ツキヒ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>セイセキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dateScore</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>kyoriScore</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>bamei</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -612,89 +417,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>spanScore</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>同一レース間隔成績   
-1着回数x10^6 + 2着回数x10^4 +3着回数x10^2 + 4着以下回数</t>
-    <rPh sb="0" eb="2">
-      <t>ドウイツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カンカク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セイセキ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>チャク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>同距離の成績
-1着回数x10^6 + 2着回数x10^4 +3着回数x10^2 + 4着以下回数</t>
-    <rPh sb="0" eb="1">
-      <t>ドウ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>キョリ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セイセキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>馬名
-1着回数x10^6 + 2着回数x10^4 +3着回数x10^2 + 4着以下回数</t>
-    <rPh sb="0" eb="2">
-      <t>バメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>flags</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ビット単位で使用
-Bit0:１走前が今回と異種別（芝・ダート）ならば１
-Bit1:２走前が今回と異種別（芝・ダート）ならば１
-Bit2:３走前が今回と異種別（芝・ダート）ならば１
-Bit3:４走前が今回と異種別（芝・ダート）ならば１
-</t>
-    <rPh sb="3" eb="5">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ソウマエ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>コンカイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>イシュ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>シバ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>href</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1204,6 +926,57 @@
     <rPh sb="0" eb="3">
       <t>セイシキメイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Param</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【　Param　】 パラメータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主キー、パラメータＩＤ</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータの説明</t>
+    <rPh sb="6" eb="8">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータの値を文字列化したもの（※）</t>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>モジレツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（※）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータ名：値，パラメータ名：値，・・・，パラメータ名：値</t>
+  </si>
+  <si>
+    <t>params</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1439,16 +1212,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>600070</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2666995</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1463,7 +1236,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="190500" y="3429000"/>
+          <a:off x="3790950" y="4286250"/>
           <a:ext cx="1219195" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1490,65 +1263,12 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-            <a:t>解析値</a:t>
+            <a:t>パラメータ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>676273</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>785813</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線コネクタ 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82875059-CAC6-4881-BE7A-E9AD8C733E20}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="5" idx="0"/>
-          <a:endCxn id="3" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="800098" y="3028950"/>
-          <a:ext cx="795340" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -1727,15 +1447,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>600070</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1390645</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1750,7 +1470,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1724025" y="2981325"/>
+          <a:off x="981075" y="3409950"/>
           <a:ext cx="1219195" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1788,15 +1508,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>785813</xdr:colOff>
+      <xdr:colOff>781048</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1523998</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>785813</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1814,9 +1534,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1595438" y="3028950"/>
-          <a:ext cx="738185" cy="409575"/>
+        <a:xfrm flipV="1">
+          <a:off x="1590673" y="3028950"/>
+          <a:ext cx="4765" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2253,7 +1973,7 @@
   <dimension ref="B1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2299,10 +2019,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2310,10 +2030,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2321,10 +2041,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2332,10 +2052,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2343,10 +2063,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2507,7 +2227,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>57</v>
@@ -2516,7 +2236,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2541,7 +2261,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>57</v>
@@ -2550,7 +2270,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3398,10 +3118,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABC9DEF-809A-40BF-B77D-BD609A595BB0}">
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="I20:J20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3416,7 +3136,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3461,7 +3181,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3469,16 +3189,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3486,272 +3206,126 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>93</v>
-      </c>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>64</v>
+      <c r="A8" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>67</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>69</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
-        <v>11</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>70</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
-        <v>13</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
-        <v>14</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
-        <v>15</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
-        <v>16</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>97</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
+      <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
+    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
     <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
+      <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
+      <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3759,10 +3333,10 @@
     </row>
     <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
@@ -3783,10 +3357,10 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1"/>
+      <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3794,10 +3368,10 @@
     </row>
     <row r="31" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
@@ -3806,19 +3380,26 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
+    <row r="33" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="11"/>
+    </row>
     <row r="35" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1"/>
+      <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
@@ -3855,36 +3436,21 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="2"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
     <row r="43" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="2"/>
-      <c r="B43" s="1"/>
+      <c r="B43" s="11"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="11"/>
-    </row>
-    <row r="44" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="2"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="E43" s="1"/>
     </row>
     <row r="45" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="2"/>
+      <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="2"/>
+      <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -3892,17 +3458,17 @@
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="11"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="11"/>
+      <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
@@ -3911,22 +3477,29 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
+    <row r="50" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
     <row r="51" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="11"/>
     </row>
     <row r="52" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="2"/>
+      <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -3934,10 +3507,10 @@
     </row>
     <row r="54" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2"/>
@@ -3946,11 +3519,12 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="57" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="11"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
+    <row r="56" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="2"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
     </row>
     <row r="59" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
@@ -3999,17 +3573,17 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="11"/>
+      <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="11"/>
+      <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="1"/>
+      <c r="A67" s="2"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -4017,10 +3591,10 @@
     </row>
     <row r="68" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
@@ -4030,21 +3604,35 @@
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="2"/>
+      <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
+    <row r="71" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="2"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+    </row>
     <row r="73" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="1"/>
+      <c r="A73" s="2"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="1"/>
+      <c r="A74" s="2"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -4052,41 +3640,20 @@
     </row>
     <row r="75" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="2"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="2"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-    </row>
-    <row r="78" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="2"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
     </row>
     <row r="79" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="2"/>
+      <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="2"/>
+      <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -4094,10 +3661,10 @@
     </row>
     <row r="81" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="2"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
     </row>
     <row r="82" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="2"/>
@@ -4111,21 +3678,21 @@
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
+      <c r="E83" s="11"/>
     </row>
     <row r="84" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="1"/>
+      <c r="A84" s="2"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
+      <c r="E84" s="11"/>
     </row>
     <row r="85" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="2"/>
@@ -4139,31 +3706,52 @@
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
+      <c r="E87" s="11"/>
     </row>
     <row r="88" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="2"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
+      <c r="E88" s="11"/>
     </row>
     <row r="89" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="2"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="11"/>
+    </row>
+    <row r="90" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="2"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
     </row>
     <row r="93" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="1"/>
+      <c r="A93" s="2"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="1"/>
+      <c r="A94" s="2"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -4171,10 +3759,10 @@
     </row>
     <row r="95" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="2"/>
@@ -4188,59 +3776,45 @@
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-      <c r="E97" s="11"/>
-    </row>
-    <row r="98" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="2"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="11"/>
-    </row>
-    <row r="99" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="2"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
+      <c r="E97" s="1"/>
     </row>
     <row r="100" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="2"/>
+      <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="2"/>
+      <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
-      <c r="E101" s="11"/>
+      <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="2"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="11"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
     </row>
     <row r="103" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="2"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="11"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
     </row>
     <row r="104" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="2"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="12"/>
+      <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
     <row r="105" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="1"/>
+      <c r="A105" s="2"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -4248,10 +3822,10 @@
     </row>
     <row r="106" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="2"/>
@@ -4288,11 +3862,25 @@
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
     </row>
+    <row r="112" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="2"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="2"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+    </row>
     <row r="114" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="1"/>
+      <c r="A114" s="2"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
+      <c r="D114" s="12"/>
       <c r="E114" s="1"/>
     </row>
     <row r="115" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4337,22 +3925,15 @@
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="2"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-    </row>
     <row r="122" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="2"/>
+      <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
     </row>
     <row r="123" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="2"/>
+      <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -4360,10 +3941,10 @@
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="2"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
     </row>
     <row r="125" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="2"/>
@@ -4390,39 +3971,39 @@
       <c r="A128" s="2"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
-      <c r="D128" s="12"/>
+      <c r="D128" s="1"/>
       <c r="E128" s="1"/>
     </row>
     <row r="129" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="1"/>
+      <c r="A129" s="2"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
     </row>
     <row r="130" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
+      <c r="A130" s="13"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="14"/>
     </row>
     <row r="131" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="2"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
+      <c r="A131" s="13"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="14"/>
     </row>
     <row r="132" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="2"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
+      <c r="A132" s="13"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="14"/>
     </row>
     <row r="133" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="2"/>
+      <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -4430,122 +4011,31 @@
     </row>
     <row r="134" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="2"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+    </row>
+    <row r="135" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="2"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
     </row>
     <row r="136" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="1"/>
+      <c r="A136" s="2"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
     <row r="137" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="1"/>
+      <c r="A137" s="2"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
-    </row>
-    <row r="138" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-    </row>
-    <row r="139" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="2"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-    </row>
-    <row r="140" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="2"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-    </row>
-    <row r="141" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="2"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-    </row>
-    <row r="142" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="2"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-    </row>
-    <row r="143" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="2"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-    </row>
-    <row r="144" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="13"/>
-      <c r="B144" s="14"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="14"/>
-    </row>
-    <row r="145" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="13"/>
-      <c r="B145" s="14"/>
-      <c r="C145" s="14"/>
-      <c r="D145" s="15"/>
-      <c r="E145" s="14"/>
-    </row>
-    <row r="146" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="13"/>
-      <c r="B146" s="14"/>
-      <c r="C146" s="14"/>
-      <c r="D146" s="15"/>
-      <c r="E146" s="14"/>
-    </row>
-    <row r="147" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-    </row>
-    <row r="148" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-    </row>
-    <row r="149" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="2"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-    </row>
-    <row r="150" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="2"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-    </row>
-    <row r="151" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="2"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4555,9 +4045,9 @@
     <oddHeader>&amp;C&amp;F</oddHeader>
   </headerFooter>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="33" max="16383" man="1"/>
-    <brk id="71" max="16383" man="1"/>
-    <brk id="113" max="16383" man="1"/>
+    <brk id="19" max="16383" man="1"/>
+    <brk id="57" max="16383" man="1"/>
+    <brk id="99" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -4582,7 +4072,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4627,7 +4117,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4695,7 +4185,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4720,7 +4210,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>58</v>
@@ -4729,7 +4219,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4741,7 +4231,7 @@
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -4780,7 +4270,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>10</v>
@@ -4803,7 +4293,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4828,7 +4318,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>57</v>
@@ -4837,7 +4327,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4896,7 +4386,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>59</v>
@@ -4905,7 +4395,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4947,7 +4437,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>57</v>
@@ -4984,13 +4474,13 @@
         <v>32</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -5018,7 +4508,7 @@
         <v>37</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>10</v>
@@ -5032,7 +4522,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>59</v>
@@ -5041,7 +4531,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -5891,7 +5381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEC15CE-3C4D-4E9D-B208-888879EAE741}">
   <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -5907,7 +5397,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5977,7 +5467,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>57</v>
@@ -5986,7 +5476,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -5994,7 +5484,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>57</v>
@@ -6011,7 +5501,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>59</v>
@@ -6020,7 +5510,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -6028,7 +5518,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>59</v>
@@ -6037,7 +5527,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -6048,13 +5538,13 @@
         <v>32</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -6082,7 +5572,7 @@
         <v>37</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>10</v>
@@ -6105,7 +5595,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -6116,13 +5606,13 @@
         <v>42</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -6130,16 +5620,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -6147,16 +5637,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -6198,7 +5688,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>59</v>
@@ -6207,7 +5697,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -6232,7 +5722,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>59</v>
@@ -6241,12 +5731,12 @@
         <v>10</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -6291,7 +5781,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -6299,7 +5789,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>59</v>
@@ -6308,7 +5798,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -6316,7 +5806,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>59</v>
@@ -6325,7 +5815,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -7033,15 +6523,15 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="C3" s="18">
         <v>100</v>
@@ -7057,10 +6547,10 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C4" s="18">
         <v>100</v>
@@ -7076,10 +6566,10 @@
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C5" s="18">
         <v>100</v>
@@ -7095,10 +6585,10 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="C6" s="18">
         <v>100</v>
@@ -7114,10 +6604,10 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C7" s="18">
         <v>0.6</v>
@@ -7133,10 +6623,10 @@
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="C8" s="18">
         <v>1</v>
@@ -7152,10 +6642,10 @@
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="C9" s="18">
         <v>0.9</v>
@@ -7171,10 +6661,10 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="C10" s="18">
         <v>0.8</v>
@@ -7190,10 +6680,10 @@
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="C11" s="18">
         <v>0.8</v>
@@ -7222,15 +6712,15 @@
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="17" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C17" s="18">
         <v>1</v>
@@ -7246,10 +6736,10 @@
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C18" s="18">
         <v>0.9</v>
@@ -7265,10 +6755,10 @@
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C19" s="18">
         <v>0.8</v>
@@ -7284,10 +6774,10 @@
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C20" s="18">
         <v>0.7</v>
@@ -7303,10 +6793,10 @@
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="18" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="C21" s="18">
         <v>-0.1</v>
@@ -7322,10 +6812,10 @@
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="18" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C22" s="18">
         <v>0.3</v>
